--- a/data/trans_camb/P16B06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>58,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,42</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,58; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 54,31</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>138,3%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,04%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,58; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 124,44</t>
         </is>
       </c>
     </row>
@@ -762,27 +762,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -800,27 +800,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,28; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 10,01</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,28; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 11,09</t>
         </is>
       </c>
     </row>
@@ -913,27 +913,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-18,68</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,82; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,82; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,47</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,46; 72,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 76,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 36,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 33,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; 31,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 34,71</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,97%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,51; 287,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 316,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 58,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 51,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 48,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 56,12</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,76</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,09</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,47; 40,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 30,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,11</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,75%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,48; 70,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 90,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 45,18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 58,99</t>
         </is>
       </c>
     </row>
@@ -1386,27 +1386,27 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>-17,65</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>-17,65</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,65</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,83; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; -6,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,86; -7,49</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,65%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,65%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,65%</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,83; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; -6,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,86; -7,49</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,58; 27,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 12,35</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 11,97</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 48,46</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,62; 38,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 14,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 14,11</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,08</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,98</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 13,88</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,46; 8,41</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 11,69</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,68; 7,63</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,7</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 24,97</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 16,11</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,69; 9,28</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 13,37</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,81; 8,43</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 16,2</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 14,6</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 7,87</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 6,12</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,47</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 6,8</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 19,59</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 17,99</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 8,68</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 6,76</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 9,38</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 7,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>40,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 53,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,39; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 123,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,24</t>
+          <t>20,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 72,6</t>
+          <t>0,0; 76,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 36,62</t>
+          <t>-6,85; 35,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 31,93</t>
+          <t>-3,1; 33,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 287,46</t>
+          <t>0,0; 316,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 58,15</t>
+          <t>-6,86; 55,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 48,34</t>
+          <t>-3,27; 52,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 100,0</t>
+          <t>-18,38; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 0,0</t>
+          <t>-18,42; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 53,92</t>
+          <t>-4,04; 61,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 54,31</t>
+          <t>-2,87; 59,1</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,39; —</t>
+          <t>-20,43; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -730,24 +730,24 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 0,0</t>
+          <t>-18,42; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 123,63</t>
+          <t>-4,07; 162,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 124,44</t>
+          <t>-2,92; 167,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -800,27 +800,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 0,0</t>
+          <t>-37,94; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,92</t>
+          <t>0,0; 14,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,79</t>
+          <t>0,0; 15,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,48</t>
+          <t>0,0; 12,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 10,01</t>
+          <t>-4,18; 7,73</t>
         </is>
       </c>
     </row>
@@ -876,34 +876,34 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 0,0</t>
+          <t>-37,94; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,93</t>
+          <t>0,0; 17,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,76</t>
+          <t>0,0; 18,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,99</t>
+          <t>0,0; 14,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 11,09</t>
+          <t>-4,19; 8,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 0,0</t>
+          <t>-29,37; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 0,0</t>
+          <t>-29,37; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 35,14</t>
+          <t>-6,91; 33,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 33,25</t>
+          <t>-5,11; 42,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 33,16</t>
+          <t>-2,78; 35,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 34,71</t>
+          <t>-2,07; 35,74</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 55,74</t>
+          <t>-6,93; 54,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 51,24</t>
+          <t>-5,12; 74,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 52,32</t>
+          <t>-2,78; 57,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 56,12</t>
+          <t>-2,07; 56,73</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 40,41</t>
+          <t>-7,09; 41,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,53</t>
+          <t>0,0; 50,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 30,8</t>
+          <t>-8,79; 28,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,11</t>
+          <t>0,0; 37,84</t>
         </is>
       </c>
     </row>
@@ -1349,29 +1349,29 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 70,84</t>
+          <t>-7,45; 75,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 90,74</t>
+          <t>0,0; 103,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 45,18</t>
+          <t>-8,79; 41,33</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,99</t>
+          <t>0,0; 60,88</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 0,0</t>
+          <t>-47,08; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-35,18; -6,78</t>
+          <t>-35,21; -6,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,86; -7,49</t>
+          <t>-31,82; -7,38</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 0,0</t>
+          <t>-47,08; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-35,18; -6,78</t>
+          <t>-35,21; -6,61</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1520,14 +1520,14 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,86; -7,49</t>
+          <t>-31,82; -7,38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,65</t>
+          <t>0,0; 32,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 27,59</t>
+          <t>-7,6; 28,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,31</t>
+          <t>0,0; 18,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 12,35</t>
+          <t>-3,89; 14,71</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,83</t>
+          <t>0,0; 16,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 11,97</t>
+          <t>-3,75; 12,51</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,46</t>
+          <t>0,0; 48,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 38,79</t>
+          <t>-7,71; 40,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,52</t>
+          <t>0,0; 22,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 14,31</t>
+          <t>-3,89; 17,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,24</t>
+          <t>0,0; 19,11</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 14,11</t>
+          <t>-3,73; 14,82</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,08</t>
+          <t>0,0; 20,45</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,98</t>
+          <t>0,0; 20,99</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 13,88</t>
+          <t>-1,52; 12,86</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 8,41</t>
+          <t>-10,33; 8,58</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 11,69</t>
+          <t>0,0; 12,0</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 7,63</t>
+          <t>-7,83; 8,47</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,7</t>
+          <t>0,0; 25,7</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,97</t>
+          <t>0,0; 26,56</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 16,11</t>
+          <t>-1,52; 14,85</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 9,28</t>
+          <t>-10,55; 9,63</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 13,37</t>
+          <t>0,0; 13,63</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 8,43</t>
+          <t>-8,1; 9,38</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,09; 16,2</t>
+          <t>-0,22; 16,48</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 14,6</t>
+          <t>-2,77; 14,91</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 7,87</t>
+          <t>-0,69; 7,49</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,12</t>
+          <t>-3,04; 5,62</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,47</t>
+          <t>0,7; 8,26</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,8</t>
+          <t>-1,47; 6,59</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,16; 19,59</t>
+          <t>-0,2; 20,33</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 17,99</t>
+          <t>-2,93; 17,82</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 8,68</t>
+          <t>-0,71; 8,15</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 6,76</t>
+          <t>-3,12; 6,18</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,38</t>
+          <t>0,76; 9,17</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,61</t>
+          <t>-1,51; 7,35</t>
         </is>
       </c>
     </row>
